--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +709,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E8" s="3">
         <v>31800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>83300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>88000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7100</v>
+        <v>12000</v>
       </c>
       <c r="E9" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F9" s="3">
         <v>26000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>34200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,26 +773,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24700</v>
+        <v>18600</v>
       </c>
       <c r="E10" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F10" s="3">
         <v>57300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>53800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +821,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -904,17 +927,17 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,8 +960,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,17 +970,17 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F17" s="3">
         <v>34700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,8 +990,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,17 +1002,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F18" s="3">
         <v>48600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1038,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,17 +1048,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1068,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,17 +1080,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F21" s="3">
         <v>55000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>51100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1100,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1072,17 +1112,17 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,26 +1132,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E23" s="3">
         <v>16500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>48500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,26 +1164,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,8 +1228,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1188,17 +1240,17 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F26" s="3">
         <v>45500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,8 +1260,11 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1217,17 +1272,17 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F27" s="3">
         <v>46600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39800</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1420,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1362,17 +1432,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,8 +1452,11 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1391,17 +1464,17 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F33" s="3">
         <v>46600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39800</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,8 +1516,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1449,17 +1528,17 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F35" s="3">
         <v>46600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39800</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1548,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1615,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,20 +1645,23 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300400</v>
+      </c>
+      <c r="E42" s="3">
         <v>9900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,20 +1677,23 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E43" s="3">
         <v>26000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,20 +1741,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,20 +1773,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>355600</v>
+      </c>
+      <c r="E46" s="3">
         <v>53700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63100</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,20 +1805,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E47" s="3">
         <v>24500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,20 +1837,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,20 +1869,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E49" s="3">
         <v>22400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +1965,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2029,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>413600</v>
+      </c>
+      <c r="E54" s="3">
         <v>107200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>130000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,8 +2091,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1990,8 +2121,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1999,11 +2133,11 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,20 +2153,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44000</v>
+        <v>39500</v>
       </c>
       <c r="E59" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F59" s="3">
         <v>33900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,20 +2185,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E60" s="3">
         <v>44000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34600</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2217,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2086,11 +2229,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2106,20 +2249,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2377,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E66" s="3">
         <v>49900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2551,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>63500</v>
+        <v>76300</v>
       </c>
       <c r="E72" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F72" s="3">
         <v>96200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2679,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>370300</v>
+      </c>
+      <c r="E76" s="3">
         <v>57300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2743,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2780,11 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2597,17 +2792,17 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F81" s="3">
         <v>46600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39800</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2828,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2639,11 +2838,11 @@
         <v>3</v>
       </c>
       <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,8 +3018,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2813,11 +3030,11 @@
         <v>3</v>
       </c>
       <c r="E89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F89" s="3">
         <v>59300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3066,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2855,11 +3076,11 @@
         <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3160,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2942,11 +3172,11 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F94" s="3">
         <v>17000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,8 +3334,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3100,11 +3346,11 @@
         <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-40600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3366,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3129,11 +3378,11 @@
         <v>3</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,8 +3398,11 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3158,11 +3410,11 @@
         <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F102" s="3">
         <v>35600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,45 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,29 +713,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E8" s="3">
         <v>30600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>83300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>88000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,29 +748,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E9" s="3">
         <v>12000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>34200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E10" s="3">
         <v>18600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>53800</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,31 +903,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -918,8 +938,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,20 +950,20 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,8 +973,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,8 +987,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -970,20 +997,20 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F17" s="3">
         <v>15100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1020,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1002,20 +1032,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F18" s="3">
         <v>16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>44000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,8 +1072,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1051,17 +1085,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1105,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1080,20 +1117,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F21" s="3">
         <v>18600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>51100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,8 +1140,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1112,20 +1152,20 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,29 +1175,32 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E23" s="3">
         <v>13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,29 +1210,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1199,8 +1245,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,8 +1280,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1240,20 +1292,20 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F26" s="3">
         <v>16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>45500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1315,11 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1272,20 +1327,20 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F27" s="3">
         <v>15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>46600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39800</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1490,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,17 +1505,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1455,8 +1525,11 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1464,20 +1537,20 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F33" s="3">
         <v>15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>46600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39800</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,8 +1595,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1528,20 +1607,20 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F35" s="3">
         <v>15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>46600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39800</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,34 +1630,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,23 +1702,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E41" s="3">
         <v>28700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,23 +1735,26 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>286300</v>
+      </c>
+      <c r="E42" s="3">
         <v>300400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11600</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,23 +1770,26 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E43" s="3">
         <v>24400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +1805,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,23 +1840,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,23 +1875,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>355600</v>
+        <v>428300</v>
       </c>
       <c r="E46" s="3">
+        <v>355500</v>
+      </c>
+      <c r="F46" s="3">
         <v>53700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,23 +1910,26 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E47" s="3">
         <v>30400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,23 +1945,26 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,23 +1980,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E49" s="3">
         <v>21400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +2015,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,23 +2085,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2120,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,23 +2155,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>413600</v>
+        <v>486500</v>
       </c>
       <c r="E54" s="3">
+        <v>413500</v>
+      </c>
+      <c r="F54" s="3">
         <v>107200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>130000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,8 +2222,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2124,8 +2255,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2133,14 +2267,14 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2156,23 +2290,26 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39500</v>
+        <v>52300</v>
       </c>
       <c r="E59" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F59" s="3">
         <v>43300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,23 +2325,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E60" s="3">
         <v>39500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2360,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2229,14 +2372,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2252,23 +2395,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2430,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,23 +2535,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43300</v>
+        <v>56400</v>
       </c>
       <c r="E66" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F66" s="3">
         <v>49900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2522,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,23 +2725,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E72" s="3">
         <v>76300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>62000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>96200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,23 +2865,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>430100</v>
+      </c>
+      <c r="E76" s="3">
         <v>370300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,34 +2935,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,8 +2975,11 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2792,20 +2987,20 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F81" s="3">
         <v>15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>46600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39800</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,8 +3027,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2838,14 +3037,14 @@
         <v>3</v>
       </c>
       <c r="E83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3060,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,8 +3235,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3030,14 +3247,14 @@
         <v>3</v>
       </c>
       <c r="E89" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>59300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3270,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,8 +3287,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3076,14 +3297,14 @@
         <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3320,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,8 +3390,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3172,14 +3402,14 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
+        <v>-297400</v>
+      </c>
+      <c r="F94" s="3">
         <v>6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>17000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3425,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3218,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-23300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3241,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,8 +3580,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3346,14 +3592,14 @@
         <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>277300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-25600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-40600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,8 +3615,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3378,14 +3627,14 @@
         <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,8 +3650,11 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3410,14 +3662,14 @@
         <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-25600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>35600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,48 +665,49 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,32 +717,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E8" s="3">
         <v>119000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>83300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>88000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,32 +755,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>43200</v>
+        <v>15200</v>
       </c>
       <c r="E9" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F9" s="3">
         <v>12000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>34200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,32 +793,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>75800</v>
+        <v>24500</v>
       </c>
       <c r="E10" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F10" s="3">
         <v>18600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>57300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>53800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,8 +831,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +849,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +885,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,22 +923,25 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>2200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -932,8 +952,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -941,32 +961,35 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
       </c>
       <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +999,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,32 +1014,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>18300</v>
       </c>
       <c r="E17" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F17" s="3">
         <v>16800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,32 +1050,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>21400</v>
       </c>
       <c r="E18" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F18" s="3">
         <v>13800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1088,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,32 +1106,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,32 +1142,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>22900</v>
       </c>
       <c r="E21" s="3">
+        <v>74500</v>
+      </c>
+      <c r="F21" s="3">
         <v>15800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J21" s="3">
         <v>51100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,32 +1180,35 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1178,32 +1218,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E23" s="3">
         <v>72200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>48500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,32 +1256,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1248,8 +1294,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,32 +1332,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>21500</v>
       </c>
       <c r="E26" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F26" s="3">
         <v>13100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>45500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,32 +1370,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>21500</v>
       </c>
       <c r="E27" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F27" s="3">
         <v>14300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>46600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1408,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1446,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1484,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1522,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,32 +1560,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,32 +1598,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>21500</v>
       </c>
       <c r="E33" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F33" s="3">
         <v>14300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>46600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1636,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,32 +1674,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>21500</v>
       </c>
       <c r="E35" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F35" s="3">
         <v>14300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>46600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,37 +1712,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1755,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1773,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,26 +1789,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E41" s="3">
         <v>25200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,26 +1825,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>250800</v>
+      </c>
+      <c r="E42" s="3">
         <v>286300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>300400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>11600</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1773,26 +1863,29 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>113800</v>
+        <v>122300</v>
       </c>
       <c r="E43" s="3">
+        <v>113700</v>
+      </c>
+      <c r="F43" s="3">
         <v>24400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1901,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,26 +1939,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,26 +1977,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>428300</v>
+        <v>421400</v>
       </c>
       <c r="E46" s="3">
+        <v>428200</v>
+      </c>
+      <c r="F46" s="3">
         <v>355500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,26 +2015,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31200</v>
+        <v>30600</v>
       </c>
       <c r="E47" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F47" s="3">
         <v>30400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,26 +2053,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,26 +2091,29 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E49" s="3">
         <v>19300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2129,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2167,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,26 +2205,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="E52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2243,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,26 +2281,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>486500</v>
+        <v>478500</v>
       </c>
       <c r="E54" s="3">
+        <v>486400</v>
+      </c>
+      <c r="F54" s="3">
         <v>413500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>130000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2319,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2337,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,8 +2353,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2258,26 +2389,29 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2293,26 +2427,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52300</v>
+        <v>84700</v>
       </c>
       <c r="E59" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F59" s="3">
         <v>38600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,26 +2465,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52300</v>
+        <v>85600</v>
       </c>
       <c r="E60" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F60" s="3">
         <v>39500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,26 +2503,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2398,26 +2541,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
         <v>2900</v>
       </c>
       <c r="F62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2579,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2617,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2655,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,26 +2693,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56400</v>
+        <v>90300</v>
       </c>
       <c r="E66" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F66" s="3">
         <v>43200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2731,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2749,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2785,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2823,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2861,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,26 +2899,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>135300</v>
+        <v>94500</v>
       </c>
       <c r="E72" s="3">
+        <v>135900</v>
+      </c>
+      <c r="F72" s="3">
         <v>76300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>62000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>96200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2937,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2975,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3013,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,26 +3051,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>388200</v>
+      </c>
+      <c r="E76" s="3">
         <v>430100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>370300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>89900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3089,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,37 +3127,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,32 +3170,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>21500</v>
       </c>
       <c r="E81" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F81" s="3">
         <v>14300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>46600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3208,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,31 +3226,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>2000</v>
       </c>
       <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3063,8 +3262,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3300,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3338,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3376,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3414,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,31 +3452,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>47800</v>
       </c>
       <c r="E89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F89" s="3">
         <v>34600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>59300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>48600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3273,8 +3490,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,31 +3508,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3323,8 +3544,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3582,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,31 +3620,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>34800</v>
       </c>
       <c r="E94" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-297400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>17000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>32300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3428,8 +3658,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,20 +3676,21 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-63000</v>
       </c>
       <c r="E96" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-23300</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3478,8 +3712,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3750,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3788,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,31 +3826,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-63500</v>
       </c>
       <c r="E100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F100" s="3">
         <v>277300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-40600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-53300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3618,31 +3864,34 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3653,31 +3902,34 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>19100</v>
       </c>
       <c r="E102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F102" s="3">
         <v>14700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>35600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>27600</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3686,6 +3938,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,52 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,35 +720,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E8" s="3">
         <v>39700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>119000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>83300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>88000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -758,35 +761,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E9" s="3">
         <v>15200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>34200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,35 +802,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E10" s="3">
         <v>24500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>57300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>53800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +862,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,26 +942,29 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,8 +974,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -964,8 +983,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,20 +1001,20 @@
         <v>500</v>
       </c>
       <c r="G15" s="3">
+        <v>500</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1024,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,35 +1040,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E17" s="3">
         <v>18300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,35 +1079,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E18" s="3">
         <v>21400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>72100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>44000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,35 +1139,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,35 +1178,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E21" s="3">
         <v>22900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>74500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>55000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1219,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,20 +1237,20 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,35 +1260,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E23" s="3">
         <v>20700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>72200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>48500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,35 +1301,38 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1342,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,35 +1383,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E26" s="3">
         <v>21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>73400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>45500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>41400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,35 +1424,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E27" s="3">
         <v>21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>46600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,35 +1629,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,35 +1670,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E33" s="3">
         <v>21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>46600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,35 +1752,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E35" s="3">
         <v>21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>46600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,40 +1793,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,29 +1875,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E41" s="3">
         <v>44300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,29 +1914,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E42" s="3">
         <v>250800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>286300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>300400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>11600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,29 +1955,32 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E43" s="3">
         <v>122300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>113700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +1996,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,29 +2037,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,29 +2078,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>352300</v>
+      </c>
+      <c r="E46" s="3">
         <v>421400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>428200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>355500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>53700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,29 +2119,32 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E47" s="3">
         <v>30600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>24500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,29 +2160,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,29 +2201,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>358900</v>
+      </c>
+      <c r="E49" s="3">
         <v>18300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2132,8 +2242,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,29 +2324,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,29 +2406,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>761300</v>
+      </c>
+      <c r="E54" s="3">
         <v>478500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>486400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>413500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>130000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,8 +2483,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2392,29 +2522,32 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,29 +2563,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E59" s="3">
         <v>84700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,29 +2604,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E60" s="3">
         <v>85600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>52400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,29 +2645,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2544,29 +2686,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2900</v>
       </c>
       <c r="F62" s="3">
         <v>2900</v>
       </c>
       <c r="G62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,29 +2850,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E66" s="3">
         <v>90300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,29 +3072,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E72" s="3">
         <v>94500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>135900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>76300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>62000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>96200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,29 +3236,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>564300</v>
+      </c>
+      <c r="E76" s="3">
         <v>388200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>430100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>370300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,40 +3318,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,35 +3364,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E81" s="3">
         <v>21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>46600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,35 +3424,36 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
       </c>
       <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3265,8 +3463,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,35 +3668,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E89" s="3">
         <v>47800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,35 +3728,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3547,8 +3767,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,35 +3849,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E94" s="3">
         <v>34800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-297400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>32300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3890,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,23 +3909,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-63000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-14400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-23300</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3715,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,35 +4071,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-63500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>277300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-40600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-53300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,25 +4112,28 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
@@ -3893,8 +4141,8 @@
       <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>-100</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3905,35 +4153,38 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E102" s="3">
         <v>19100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>35600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,215 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F8" s="3">
         <v>46200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>39700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>119000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>30600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>31800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>83300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>35200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>88000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F9" s="3">
         <v>16400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>43100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>12000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>26000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>34200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F10" s="3">
         <v>29800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>24500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>75900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>18600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>24600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>57300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>26500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>53800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +889,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,8 +932,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,57 +979,69 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F14" s="3">
         <v>8900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -1004,31 +1050,37 @@
         <v>500</v>
       </c>
       <c r="H15" s="3">
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,90 +1093,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F17" s="3">
         <v>31700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>18300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>46900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>15100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>34700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>44000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F18" s="3">
         <v>14500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>21400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>72100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>13800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>48600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>44000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,98 +1206,112 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F21" s="3">
         <v>18200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>22900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>74500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>15800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>18600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>55000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>22700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>51100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1240,113 +1320,131 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F23" s="3">
         <v>15100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>20700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>72200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>16500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>48500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>20300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>44100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,90 +1484,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F26" s="3">
         <v>13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>73400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>13100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>45500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>19600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>41400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F27" s="3">
         <v>13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>73400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>14300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>15600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>46600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>18700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>39800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1625,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1672,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1719,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,90 +1766,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F33" s="3">
         <v>13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>73400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>14300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>15600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>46600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>18700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>39800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,95 +1907,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F35" s="3">
         <v>13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>73400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>14300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>15600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>46600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>18700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>39800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +2029,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,35 +2048,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F41" s="3">
         <v>15300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>44300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>25200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>28700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>39700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,35 +2091,41 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>328400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>136000</v>
+      </c>
+      <c r="F42" s="3">
         <v>151900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>250800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>286300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>300400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>9900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>11600</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1958,35 +2138,41 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>105400</v>
+      </c>
+      <c r="F43" s="3">
         <v>103500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>122300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>113700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>24400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>26000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2185,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,35 +2232,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>83900</v>
+      </c>
+      <c r="F45" s="3">
         <v>81700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,35 +2279,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>492900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>338200</v>
+      </c>
+      <c r="F46" s="3">
         <v>352300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>421400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>428200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>355500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>53700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>63100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,35 +2326,41 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>282900</v>
+      </c>
+      <c r="F47" s="3">
         <v>30000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>30600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>31100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>30400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>24500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>36500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,35 +2373,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,35 +2420,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>366300</v>
+      </c>
+      <c r="F49" s="3">
         <v>358900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>18300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>19300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>21400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>22400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>23700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2467,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2514,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,35 +2561,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
         <v>6700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2608,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,35 +2655,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1008700</v>
+      </c>
+      <c r="F54" s="3">
         <v>761300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>478500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>486400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>413500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>107200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>130000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2702,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2725,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,8 +2744,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2525,16 +2787,22 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
@@ -2543,17 +2811,17 @@
         <v>900</v>
       </c>
       <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,35 +2834,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>312600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>164600</v>
+      </c>
+      <c r="F59" s="3">
         <v>155300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>84700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>51400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>38600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>43300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>33900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,35 +2881,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>313900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>166200</v>
+      </c>
+      <c r="F60" s="3">
         <v>156200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>85600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>52400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>39500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>44000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>34600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,35 +2928,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F61" s="3">
         <v>6900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2689,35 +2975,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>261900</v>
+      </c>
+      <c r="F62" s="3">
         <v>33900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +3022,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +3069,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +3116,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,35 +3163,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>367200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>435300</v>
+      </c>
+      <c r="F66" s="3">
         <v>197000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>90300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>56300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>43200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>49900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>40100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3210,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3233,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3276,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3323,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3034,8 +3370,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,35 +3417,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>83700</v>
+      </c>
+      <c r="F72" s="3">
         <v>88700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>94500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>135900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>76300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>62000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>96200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3464,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3511,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3558,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,35 +3605,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>533500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>573400</v>
+      </c>
+      <c r="F76" s="3">
         <v>564300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>388200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>430100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>370300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>57300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>89900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3652,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,95 +3699,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F81" s="3">
         <v>13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>73400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>14300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>15600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>46600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>18700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>39800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,49 +3821,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>6200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3911,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3958,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +4005,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +4052,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,49 +4099,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F89" s="3">
         <v>28000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>47800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>34600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>59300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>48600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,49 +4169,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4259,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,49 +4306,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-230900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-35900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>34800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>14200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-297400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>32300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,29 +4376,31 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-19100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-63000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-14400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-23300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3951,8 +4419,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4466,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4513,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,81 +4560,93 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>201100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-63500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-14900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>277300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-25600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-40600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-53300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
-      </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-100</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4156,45 +4654,57 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-29000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>19100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>14700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-25600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>35600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-25800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>27600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,215 +665,240 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F8" s="3">
         <v>55600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>55000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>46200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>39700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>119000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>30600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>31800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>83300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>35200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>88000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F9" s="3">
         <v>27400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>27600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>43100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>12000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>26000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>34200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F10" s="3">
         <v>28200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>27400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>29800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>24500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>75900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>24600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>57300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>26500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>53800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +916,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,8 +965,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,69 +1018,81 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>5100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>8900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>1800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
@@ -1056,31 +1101,37 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,102 +1146,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F17" s="3">
         <v>42100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>37100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>31700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>18300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>46900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>16800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>34700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>14600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>44000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F18" s="3">
         <v>13500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>17900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>14500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>21400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>72100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>13800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>48600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>20600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>44000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,116 +1273,130 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>21300</v>
       </c>
-      <c r="E21" s="3">
-        <v>28300</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H21" s="3">
         <v>18200</v>
       </c>
-      <c r="G21" s="3">
-        <v>22900</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J21" s="3">
         <v>74500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>15800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>18600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>55000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>22700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>51100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1326,125 +1405,143 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F23" s="3">
         <v>15600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>20700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>72200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>13600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>16500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>48500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>20300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>44100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,102 +1587,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F26" s="3">
         <v>15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>18300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>13200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>73400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>13100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>16300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>45500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>19600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>41400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F27" s="3">
         <v>15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>18300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>13200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>73400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>14300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>15600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>46600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>18700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>39800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1746,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1799,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1852,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,102 +1905,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F33" s="3">
         <v>15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>18300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>13200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>73400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>14300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>15600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>46600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>18700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>39800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,107 +2064,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F35" s="3">
         <v>15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>18300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>13200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>73400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>14300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>15600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>46600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>18700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>39800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2200,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,41 +2221,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F41" s="3">
         <v>13400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>12900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>44300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>25200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>28700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>39700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,41 +2270,47 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>243300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>317000</v>
+      </c>
+      <c r="F42" s="3">
         <v>328400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>136000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>151900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>250800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>286300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>300400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>11600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2144,41 +2323,47 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F43" s="3">
         <v>95600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>105400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>103500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>122300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>113700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>24400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>26000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2376,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2238,41 +2429,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F45" s="3">
         <v>55500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>83900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>81700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,41 +2482,47 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>479600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>488900</v>
+      </c>
+      <c r="F46" s="3">
         <v>492900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>338200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>352300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>421400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>428200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>355500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>53700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>63100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,41 +2535,47 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F47" s="3">
         <v>44100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>282900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>30000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>30600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>31100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>30400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>24500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>36500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2379,41 +2588,47 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F48" s="3">
         <v>18300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>15800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,41 +2641,47 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>359500</v>
+      </c>
+      <c r="F49" s="3">
         <v>339800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>366300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>358900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>18300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>19300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>21400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>22400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>23700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,8 +2694,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2747,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,41 +2800,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F52" s="3">
         <v>5500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2614,8 +2853,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,41 +2906,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>963600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>936700</v>
+      </c>
+      <c r="F54" s="3">
         <v>900700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1008700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>761300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>478500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>486400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>413500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>107200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>130000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +2959,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2984,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,8 +3005,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2793,22 +3054,28 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
@@ -2817,17 +3084,17 @@
         <v>900</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>900</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,41 +3107,47 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>347600</v>
+      </c>
+      <c r="F59" s="3">
         <v>312600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>164600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>155300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>84700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>51400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>38600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>43300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>33900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2887,41 +3160,47 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>347600</v>
+      </c>
+      <c r="F60" s="3">
         <v>313900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>166200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>156200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>85600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>52400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>39500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>44000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>34600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2934,41 +3213,47 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>8800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2981,41 +3266,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>73500</v>
+      </c>
+      <c r="F62" s="3">
         <v>44500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>261900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>33900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,8 +3319,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3372,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3425,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,41 +3478,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>409500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>422300</v>
+      </c>
+      <c r="F66" s="3">
         <v>367200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>435300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>197000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>90300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>56300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>43200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>49900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>40100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3216,8 +3531,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3556,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3605,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3658,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3376,8 +3711,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,41 +3764,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F72" s="3">
         <v>70000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>83700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>88700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>94500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>135900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>76300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>62000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>96200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3817,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3870,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3923,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,41 +3976,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>554100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>514400</v>
+      </c>
+      <c r="F76" s="3">
         <v>533500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>573400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>564300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>388200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>430100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>370300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>57300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>89900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3658,8 +4029,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,107 +4082,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F81" s="3">
         <v>15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>18300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>13200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>73400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>14300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>15600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>46600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>18700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>39800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,55 +4218,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>5100</v>
       </c>
-      <c r="E83" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H83" s="3">
         <v>2900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>6200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4320,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4373,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4426,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4479,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,55 +4532,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
-        <v>26300</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="H89" s="3">
         <v>28000</v>
       </c>
-      <c r="G89" s="3">
-        <v>47800</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>79500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>34600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>59300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>48600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,55 +4610,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4712,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,55 +4765,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>27900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-230900</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>53400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-35900</v>
       </c>
-      <c r="G94" s="3">
-        <v>34800</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-248400</v>
+      </c>
+      <c r="J94" s="3">
         <v>14200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-297400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>32300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,35 +4843,37 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-29700</v>
       </c>
-      <c r="E96" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>96200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-19100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-63000</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-14400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-23300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4425,8 +4892,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4945,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4998,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,72 +5051,84 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>-30500</v>
       </c>
-      <c r="E100" s="3">
-        <v>201100</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>23200</v>
+      </c>
+      <c r="H100" s="3">
         <v>-21000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-63500</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>198900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-14900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>277300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-25600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-40600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-53300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
@@ -4640,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="L101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-100</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -4660,51 +5157,63 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H102" s="3">
         <v>-29000</v>
       </c>
-      <c r="G102" s="3">
-        <v>19100</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>14700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-25600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>35600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-25800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>27600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="E9" s="3">
         <v>26000</v>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="E10" s="3">
         <v>31000</v>
@@ -1154,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44200</v>
+        <v>44400</v>
       </c>
       <c r="E17" s="3">
         <v>40900</v>
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>47100</v>
+        <v>46900</v>
       </c>
       <c r="E18" s="3">
         <v>16100</v>
@@ -1281,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E20" s="3">
         <v>-700</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>21300</v>
+        <v>26500</v>
       </c>
       <c r="G21" s="3">
         <v>19500</v>
@@ -1349,10 +1349,10 @@
         <v>18200</v>
       </c>
       <c r="I21" s="3">
-        <v>26800</v>
+        <v>22900</v>
       </c>
       <c r="J21" s="3">
-        <v>74500</v>
+        <v>76400</v>
       </c>
       <c r="K21" s="3">
         <v>15800</v>
@@ -1493,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E24" s="3">
         <v>2200</v>
@@ -1652,7 +1652,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="E27" s="3">
         <v>12200</v>
@@ -1917,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="E32" s="3">
         <v>700</v>
@@ -1970,7 +1970,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="E33" s="3">
         <v>12200</v>
@@ -2076,7 +2076,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="E35" s="3">
         <v>12200</v>
@@ -2229,7 +2229,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>69000</v>
+        <v>21400</v>
       </c>
       <c r="E41" s="3">
         <v>24400</v>
@@ -2282,7 +2282,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>243300</v>
+        <v>291000</v>
       </c>
       <c r="E42" s="3">
         <v>317000</v>
@@ -2335,7 +2335,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>136800</v>
+        <v>137900</v>
       </c>
       <c r="E43" s="3">
         <v>95900</v>
@@ -2441,7 +2441,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30500</v>
+        <v>29300</v>
       </c>
       <c r="E45" s="3">
         <v>51600</v>
@@ -2653,7 +2653,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>399000</v>
+        <v>411500</v>
       </c>
       <c r="E49" s="3">
         <v>359500</v>
@@ -2918,7 +2918,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>963600</v>
+        <v>976200</v>
       </c>
       <c r="E54" s="3">
         <v>936700</v>
@@ -3065,8 +3065,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>2200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -3119,7 +3119,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>333200</v>
+        <v>335800</v>
       </c>
       <c r="E59" s="3">
         <v>347600</v>
@@ -3172,7 +3172,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>333200</v>
+        <v>338000</v>
       </c>
       <c r="E60" s="3">
         <v>347600</v>
@@ -3225,7 +3225,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>116900</v>
+        <v>110900</v>
       </c>
       <c r="E62" s="3">
         <v>73500</v>
@@ -3490,7 +3490,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>409500</v>
+        <v>423500</v>
       </c>
       <c r="E66" s="3">
         <v>422300</v>
@@ -3776,7 +3776,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>77600</v>
+        <v>79100</v>
       </c>
       <c r="E72" s="3">
         <v>56200</v>
@@ -3988,7 +3988,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>554100</v>
+        <v>552800</v>
       </c>
       <c r="E76" s="3">
         <v>514400</v>
@@ -4152,7 +4152,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="E81" s="3">
         <v>12200</v>
@@ -4232,7 +4232,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>10300</v>
       </c>
       <c r="G83" s="3">
         <v>-3600</v>
@@ -4241,10 +4241,10 @@
         <v>2900</v>
       </c>
       <c r="I83" s="3">
-        <v>5900</v>
+        <v>1900</v>
       </c>
       <c r="J83" s="3">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="K83" s="3">
         <v>2000</v>
@@ -4550,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>7700</v>
+        <v>33900</v>
       </c>
       <c r="G89" s="3">
         <v>-81300</v>
@@ -4559,10 +4559,10 @@
         <v>28000</v>
       </c>
       <c r="I89" s="3">
-        <v>79500</v>
+        <v>47800</v>
       </c>
       <c r="J89" s="3">
-        <v>-2900</v>
+        <v>31700</v>
       </c>
       <c r="K89" s="3">
         <v>34600</v>
@@ -4617,26 +4617,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2800</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
-        <v>200</v>
+        <v>-800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="I91" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -4783,7 +4783,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>27900</v>
+        <v>-203000</v>
       </c>
       <c r="G94" s="3">
         <v>53400</v>
@@ -4792,10 +4792,10 @@
         <v>-35900</v>
       </c>
       <c r="I94" s="3">
-        <v>-248400</v>
+        <v>34800</v>
       </c>
       <c r="J94" s="3">
-        <v>14200</v>
+        <v>-283200</v>
       </c>
       <c r="K94" s="3">
         <v>-297400</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-29700</v>
+        <v>-53300</v>
       </c>
       <c r="G96" s="3">
         <v>96200</v>
@@ -4866,10 +4866,10 @@
         <v>-19100</v>
       </c>
       <c r="I96" s="3">
-        <v>-100700</v>
+        <v>-63000</v>
       </c>
       <c r="J96" s="3">
-        <v>-14400</v>
+        <v>-37700</v>
       </c>
       <c r="K96" s="3">
         <v>-23300</v>
@@ -5069,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>-30500</v>
+        <v>170500</v>
       </c>
       <c r="G100" s="3">
         <v>23200</v>
@@ -5078,10 +5078,10 @@
         <v>-21000</v>
       </c>
       <c r="I100" s="3">
-        <v>198900</v>
+        <v>-63500</v>
       </c>
       <c r="J100" s="3">
-        <v>-14900</v>
+        <v>262400</v>
       </c>
       <c r="K100" s="3">
         <v>277300</v>
@@ -5122,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="F101" s="3">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
       <c r="G101" s="3">
         <v>1200</v>
@@ -5131,10 +5131,10 @@
         <v>-200</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
@@ -5175,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="G102" s="3">
         <v>-3600</v>
@@ -5184,10 +5184,10 @@
         <v>-29000</v>
       </c>
       <c r="I102" s="3">
-        <v>30300</v>
+        <v>19100</v>
       </c>
       <c r="J102" s="3">
-        <v>-3500</v>
+        <v>11100</v>
       </c>
       <c r="K102" s="3">
         <v>14700</v>

--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,266 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>73800</v>
+      </c>
+      <c r="F8" s="3">
         <v>91300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>57000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>55600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>55000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>46200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>39700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>119000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>30600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>31800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>83300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>35200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>88000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F9" s="3">
         <v>40800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>26000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>27400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>27600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>16400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>43100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>26000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>34200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F10" s="3">
         <v>50500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>31000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>28200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>27400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>29800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>24500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>75900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>18600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>24600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>57300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>26500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>53800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +944,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,8 +999,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1058,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,50 +1075,56 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>8900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,17 +1134,17 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>1800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -1107,31 +1153,37 @@
         <v>500</v>
       </c>
       <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,114 +1200,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>52100</v>
+      </c>
+      <c r="F17" s="3">
         <v>44400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>40900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>42100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>37100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>31700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>18300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>46900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>34700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>44000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F18" s="3">
         <v>46900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>16100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>13500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>17900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>14500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>21400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>72100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>48600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>20600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>44000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,61 +1341,69 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1340,49 +1414,55 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>26500</v>
-      </c>
-      <c r="G21" s="3">
+        <v>70200</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I21" s="3">
         <v>19500</v>
       </c>
-      <c r="H21" s="3">
-        <v>18200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K21" s="3">
         <v>22900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>76400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>15800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>18600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>55000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>22700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>51100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,17 +1472,17 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1411,137 +1491,155 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F23" s="3">
         <v>49000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>15400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>22500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>15100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>20700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>72200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>13600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>16500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>48500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>20300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>44100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,114 +1691,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F26" s="3">
         <v>46700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>13200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>18300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>13200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>21500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>73400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>45500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>19600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>41400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F27" s="3">
         <v>46600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>18300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>13200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>73400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>14300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>46600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>18700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>39800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1868,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1927,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1986,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,114 +2045,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F33" s="3">
         <v>46600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>18300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>13200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>73400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>14300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>46600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>18700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>39800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,119 +2222,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F35" s="3">
         <v>46600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>18300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>13200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>73400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>14300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>46600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>18700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>39800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2372,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,47 +2395,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F41" s="3">
         <v>21400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>44300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>25200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>28700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>39700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,47 +2450,53 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>253400</v>
+      </c>
+      <c r="F42" s="3">
         <v>291000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>317000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>328400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>136000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>151900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>250800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>286300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>300400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>9900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>11600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,47 +2509,53 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>151900</v>
+      </c>
+      <c r="F43" s="3">
         <v>137900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>95900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>95600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>105400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>103500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>122300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>113700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>24400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>26000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,8 +2568,14 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2435,47 +2627,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F45" s="3">
         <v>29300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>51600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>55500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>83900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>81700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,47 +2686,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>377800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>464200</v>
+      </c>
+      <c r="F46" s="3">
         <v>479600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>488900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>492900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>338200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>352300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>421400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>428200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>355500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>53700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>63100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,47 +2745,53 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F47" s="3">
         <v>50400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>58600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>44100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>282900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>30000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>30600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>31100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>30400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>24500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>36500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,47 +2804,53 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F48" s="3">
         <v>24600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>24000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>18300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>15800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,47 +2863,53 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>452400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>417900</v>
+      </c>
+      <c r="F49" s="3">
         <v>411500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>359500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>339800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>366300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>358900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>18300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>19300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>21400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>22400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>23700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2700,8 +2922,14 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2981,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,47 +3040,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F52" s="3">
         <v>10000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +3099,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,47 +3158,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>950800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>999000</v>
+      </c>
+      <c r="F54" s="3">
         <v>976200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>936700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>900700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1008700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>761300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>478500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>486400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>413500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>107200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>130000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3217,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3244,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,8 +3267,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3060,28 +3322,34 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -3090,17 +3358,17 @@
         <v>900</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>900</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3113,47 +3381,53 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>371200</v>
+      </c>
+      <c r="F59" s="3">
         <v>335800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>347600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>312600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>164600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>155300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>84700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>51400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>38600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>43300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>33900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,47 +3440,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>371200</v>
+      </c>
+      <c r="F60" s="3">
         <v>338000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>347600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>313900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>166200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>156200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>85600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>52400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>39500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>44000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>34600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,47 +3499,53 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>13900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>8800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3272,47 +3558,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>131800</v>
+      </c>
+      <c r="F62" s="3">
         <v>110900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>73500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>44500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>261900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>33900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3617,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3676,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3735,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,47 +3794,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>410100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>460900</v>
+      </c>
+      <c r="F66" s="3">
         <v>423500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>422300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>367200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>435300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>197000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>90300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>56300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>43200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>49900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>40100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3853,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3880,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3935,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3994,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +4053,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,47 +4112,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F72" s="3">
         <v>79100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>56200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>70000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>83700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>88700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>94500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>135900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>76300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>62000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>96200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +4171,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4230,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4289,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,47 +4348,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>540700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>538100</v>
+      </c>
+      <c r="F76" s="3">
         <v>552800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>514400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>533500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>573400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>564300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>388200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>430100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>370300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>57300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>89900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,8 +4407,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,119 +4466,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F81" s="3">
         <v>46600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>18300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>13200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>73400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>14300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>46600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>18700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>39800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,8 +4616,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4232,49 +4630,55 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>10300</v>
-      </c>
-      <c r="G83" s="3">
+        <v>21200</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I83" s="3">
         <v>-3600</v>
       </c>
-      <c r="H83" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>6200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4730,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4789,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4848,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4907,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,8 +4966,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4550,49 +4984,55 @@
         <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>33900</v>
-      </c>
-      <c r="G89" s="3">
+        <v>81100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-81300</v>
       </c>
-      <c r="H89" s="3">
-        <v>28000</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>107600</v>
+      </c>
+      <c r="K89" s="3">
         <v>47800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>31700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>34600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>59300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>48600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,8 +5052,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,34 +5081,40 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +5166,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,8 +5225,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4783,49 +5243,55 @@
         <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>-203000</v>
-      </c>
-      <c r="G94" s="3">
+        <v>-189300</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>27900</v>
+      </c>
+      <c r="I94" s="3">
         <v>53400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-35900</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-284200</v>
+      </c>
+      <c r="K94" s="3">
         <v>34800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-283200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-297400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>17000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-21000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>32300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5311,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4857,29 +5325,29 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-53300</v>
+        <v>-103300</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="I96" s="3">
         <v>96200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>-119800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-63000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-37700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-23300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4898,8 +5366,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5425,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5484,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,8 +5543,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5069,49 +5561,55 @@
         <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>170500</v>
-      </c>
-      <c r="G100" s="3">
+        <v>118500</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="I100" s="3">
         <v>23200</v>
       </c>
-      <c r="H100" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>177900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-63500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>262400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>277300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-25600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-40600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-53300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5122,40 +5620,40 @@
         <v>3</v>
       </c>
       <c r="F101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-100</v>
-      </c>
       <c r="N101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-100</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -5163,8 +5661,14 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5175,45 +5679,51 @@
         <v>3</v>
       </c>
       <c r="F102" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>19100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-25600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>35600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-25800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>27600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="92">
   <si>
     <t>PAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,79 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -746,56 +747,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E8" s="3">
         <v>78600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>91300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>83300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>88000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,56 +809,59 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E9" s="3">
         <v>35900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>26000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,56 +871,59 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E10" s="3">
         <v>42700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>57300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +933,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,8 +959,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1019,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,8 +1081,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,30 +1101,30 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>5100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1134,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1123,8 +1143,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1140,14 +1163,14 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>1800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1159,20 +1182,20 @@
         <v>500</v>
       </c>
       <c r="N15" s="3">
+        <v>500</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1205,11 @@
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,56 +1228,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E17" s="3">
         <v>51000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>42100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,56 +1288,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E18" s="3">
         <v>27600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>72100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1350,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1343,56 +1376,57 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1402,8 +1436,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1413,45 +1450,45 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>70200</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>21300</v>
       </c>
-      <c r="I21" s="3">
-        <v>19500</v>
-      </c>
       <c r="J21" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K21" s="3">
         <v>24100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>76400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>55000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>51100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1461,8 +1498,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,14 +1518,14 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1497,20 +1537,20 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1520,56 +1560,59 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E23" s="3">
         <v>28400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>49000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,56 +1622,59 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2200</v>
       </c>
       <c r="G24" s="3">
         <v>2200</v>
       </c>
       <c r="H24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1684,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,56 +1746,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E26" s="3">
         <v>36100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>73400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1756,56 +1808,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E27" s="3">
         <v>35700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>46600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1815,8 +1870,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1874,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1933,8 +1994,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,56 +2118,59 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2110,56 +2180,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E33" s="3">
         <v>35700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>46600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>73400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,8 +2242,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,56 +2304,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E35" s="3">
         <v>35700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>46600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>73400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,61 +2366,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2351,8 +2433,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2397,50 +2483,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
         <v>22400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2456,50 +2543,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E42" s="3">
         <v>205600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>253400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>291000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>317000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>328400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>136000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>151900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>250800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>286300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>300400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11600</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,50 +2605,53 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E43" s="3">
         <v>120600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>151900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>137900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>95900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>95600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>105400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>103500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>122300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>113700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2667,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2633,50 +2729,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E45" s="3">
         <v>29200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>81700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,50 +2791,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>379400</v>
+      </c>
+      <c r="E46" s="3">
         <v>377800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>464200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>479600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>488900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>492900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>338200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>352300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>421400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>428200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>355500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>63100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,50 +2853,53 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E47" s="3">
         <v>75700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>70000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>50400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>58600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>282900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>36500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2810,50 +2915,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E48" s="3">
         <v>25400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2869,50 +2977,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>438400</v>
+      </c>
+      <c r="E49" s="3">
         <v>452400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>417900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>411500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>359500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>339800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>366300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>358900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>22400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3039,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3046,50 +3163,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E52" s="3">
         <v>19500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5500</v>
       </c>
       <c r="I52" s="3">
         <v>5500</v>
       </c>
       <c r="J52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K52" s="3">
         <v>6700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3105,8 +3225,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3164,50 +3287,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>936800</v>
+      </c>
+      <c r="E54" s="3">
         <v>950800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>999000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>976200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>936700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1008700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>761300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>478500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>486400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>413500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>107200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>130000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3349,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3269,8 +3399,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3328,8 +3459,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3339,39 +3473,39 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3387,50 +3521,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E59" s="3">
         <v>280700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>371200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>335800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>347600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>312600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>164600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>155300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3446,50 +3583,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E60" s="3">
         <v>280700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>371200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>338000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>347600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>313900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>166200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>156200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3505,8 +3645,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3517,38 +3660,38 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>13900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>8800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3564,50 +3707,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E62" s="3">
         <v>161300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>131800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>110900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>73500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>44500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>261900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2900</v>
       </c>
       <c r="M62" s="3">
         <v>2900</v>
       </c>
       <c r="N62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3623,8 +3769,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3800,50 +3955,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>422500</v>
+      </c>
+      <c r="E66" s="3">
         <v>410100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>460900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>423500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>422300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>367200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>435300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>197000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3859,8 +4017,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4118,50 +4289,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E72" s="3">
         <v>51900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>51600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>79100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>70000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>83700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>88700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>94500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>135900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>76300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>62000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>96200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4177,8 +4351,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,50 +4537,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>514300</v>
+      </c>
+      <c r="E76" s="3">
         <v>540700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>538100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>552800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>514400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>533500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>573400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>564300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>388200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>430100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>370300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4413,8 +4599,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,61 +4661,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4536,56 +4728,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E81" s="3">
         <v>35700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>46600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>73400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4790,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4618,8 +4816,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4629,45 +4828,45 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>21200</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="I83" s="3">
-        <v>-3600</v>
-      </c>
       <c r="J83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K83" s="3">
         <v>8800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4677,8 +4876,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,8 +5186,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4983,45 +5200,45 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>81100</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
-        <v>-81300</v>
-      </c>
       <c r="J89" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K89" s="3">
         <v>107600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5031,8 +5248,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5054,8 +5274,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5078,32 +5299,32 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,8 +5334,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5231,8 +5458,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5242,45 +5472,45 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>-189300</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>27900</v>
       </c>
-      <c r="I94" s="3">
-        <v>53400</v>
-      </c>
       <c r="J94" s="3">
+        <v>-230900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-284200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>34800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-283200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-297400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>17000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>32300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5290,8 +5520,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5313,8 +5546,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5325,32 +5559,32 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-103300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-29700</v>
       </c>
-      <c r="I96" s="3">
-        <v>96200</v>
-      </c>
       <c r="J96" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-119800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-63000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-37700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-23300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5372,8 +5606,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5549,8 +5792,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5560,45 +5806,45 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>118500</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>-30500</v>
       </c>
-      <c r="I100" s="3">
-        <v>23200</v>
-      </c>
       <c r="J100" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K100" s="3">
         <v>177900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-63500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>262400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>277300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-40600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-53300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5608,8 +5854,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5619,35 +5868,35 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>1000</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
       </c>
       <c r="M101" s="3">
         <v>200</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
@@ -5655,8 +5904,8 @@
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>-100</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5667,8 +5916,11 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5678,45 +5930,45 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>11300</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="I102" s="3">
-        <v>-3600</v>
-      </c>
       <c r="J102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>27600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5724,6 +5976,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
